--- a/static/excel/检查人员模板.xlsx
+++ b/static/excel/检查人员模板.xlsx
@@ -238,7 +238,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -307,41 +307,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -621,253 +609,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA20"/>
+  <dimension ref="A1:BA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="AX1" sqref="AX1:AX1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="4" customWidth="1"/>
     <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="4" customWidth="1"/>
     <col min="8" max="8" width="17.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="4" customWidth="1"/>
     <col min="10" max="10" width="24.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.625" customWidth="1"/>
-    <col min="12" max="12" width="12.875" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="11" max="11" width="13.625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="12.875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="14" style="5" customWidth="1"/>
     <col min="15" max="15" width="13.75" customWidth="1"/>
+    <col min="16" max="17" width="9" style="5"/>
     <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="12.125" customWidth="1"/>
-    <col min="20" max="20" width="11.625" customWidth="1"/>
+    <col min="19" max="19" width="12.125" style="5" customWidth="1"/>
+    <col min="20" max="20" width="11.625" style="5" customWidth="1"/>
     <col min="21" max="21" width="17.75" customWidth="1"/>
-    <col min="22" max="22" width="19.75" customWidth="1"/>
-    <col min="23" max="23" width="25" style="10" customWidth="1"/>
-    <col min="24" max="24" width="12.25" style="10" customWidth="1"/>
-    <col min="25" max="25" width="17" style="10" customWidth="1"/>
-    <col min="26" max="26" width="19.125" style="10" customWidth="1"/>
-    <col min="27" max="27" width="13.875" style="10" customWidth="1"/>
-    <col min="28" max="28" width="12.375" customWidth="1"/>
-    <col min="29" max="29" width="19" customWidth="1"/>
-    <col min="30" max="30" width="14.375" style="10" customWidth="1"/>
-    <col min="31" max="31" width="12.625" customWidth="1"/>
-    <col min="32" max="32" width="15.25" customWidth="1"/>
-    <col min="33" max="33" width="19.125" customWidth="1"/>
-    <col min="34" max="34" width="24.625" customWidth="1"/>
-    <col min="35" max="35" width="25.75" customWidth="1"/>
-    <col min="36" max="36" width="23.25" customWidth="1"/>
-    <col min="37" max="37" width="12.625" customWidth="1"/>
-    <col min="38" max="38" width="20.75" customWidth="1"/>
-    <col min="39" max="39" width="12.625" customWidth="1"/>
-    <col min="40" max="40" width="11.75" customWidth="1"/>
-    <col min="41" max="41" width="18.5" customWidth="1"/>
-    <col min="42" max="42" width="44" customWidth="1"/>
-    <col min="46" max="46" width="13.5" customWidth="1"/>
-    <col min="47" max="47" width="15.625" customWidth="1"/>
-    <col min="48" max="48" width="16.375" customWidth="1"/>
-    <col min="49" max="49" width="23.875" style="10" customWidth="1"/>
-    <col min="50" max="50" width="24.125" style="10" customWidth="1"/>
+    <col min="22" max="22" width="19.75" style="5" customWidth="1"/>
+    <col min="23" max="23" width="25" style="7" customWidth="1"/>
+    <col min="24" max="24" width="12.25" style="7" customWidth="1"/>
+    <col min="25" max="25" width="17" style="7" customWidth="1"/>
+    <col min="26" max="26" width="19.125" style="7" customWidth="1"/>
+    <col min="27" max="27" width="13.875" style="7" customWidth="1"/>
+    <col min="28" max="28" width="12.375" style="5" customWidth="1"/>
+    <col min="29" max="29" width="19" style="5" customWidth="1"/>
+    <col min="30" max="30" width="14.375" style="7" customWidth="1"/>
+    <col min="31" max="31" width="12.625" style="5" customWidth="1"/>
+    <col min="32" max="32" width="15.25" style="5" customWidth="1"/>
+    <col min="33" max="33" width="19.125" style="5" customWidth="1"/>
+    <col min="34" max="34" width="24.625" style="5" customWidth="1"/>
+    <col min="35" max="35" width="25.75" style="5" customWidth="1"/>
+    <col min="36" max="36" width="23.25" style="5" customWidth="1"/>
+    <col min="37" max="37" width="12.625" style="5" customWidth="1"/>
+    <col min="38" max="38" width="20.75" style="5" customWidth="1"/>
+    <col min="39" max="39" width="12.625" style="5" customWidth="1"/>
+    <col min="40" max="40" width="11.75" style="5" customWidth="1"/>
+    <col min="41" max="41" width="18.5" style="5" customWidth="1"/>
+    <col min="42" max="42" width="44" style="5" customWidth="1"/>
+    <col min="43" max="45" width="9" style="5"/>
+    <col min="46" max="46" width="13.5" style="5" customWidth="1"/>
+    <col min="47" max="47" width="15.625" style="5" customWidth="1"/>
+    <col min="48" max="48" width="16.375" style="5" customWidth="1"/>
+    <col min="49" max="49" width="23.875" style="7" customWidth="1"/>
+    <col min="50" max="50" width="24.125" style="7" customWidth="1"/>
     <col min="51" max="51" width="23" customWidth="1"/>
     <col min="52" max="52" width="31.75" customWidth="1"/>
-    <col min="53" max="53" width="14.5" customWidth="1"/>
+    <col min="53" max="53" width="14.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AD1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AK1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AL1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AM1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AN1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AO1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AP1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AR1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AS1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AT1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AU1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AV1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="9" t="s">
+      <c r="AW1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="9" t="s">
+      <c r="AX1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AY1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BA1" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:50" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AD19" s="11"/>
-      <c r="AW19" s="11"/>
-      <c r="AX19" s="11"/>
-    </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="F20" s="5"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -881,7 +841,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"中共党员,中共预备党员,共青团员,民革党员,民盟盟员,民建会员,民进会员,农工党党员,致公党党员,九三学社社员,台盟盟员,无党派人士,群众"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY1:AY1048576 AZ1:AZ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY1:AZ1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576">

--- a/static/excel/检查人员模板.xlsx
+++ b/static/excel/检查人员模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linh\Desktop\双随机模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dingdingDownload\双随机模板(2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="95">
   <si>
     <t>执法人员姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -230,17 +230,329 @@
   </si>
   <si>
     <t>其他情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在岗</t>
+  </si>
+  <si>
+    <t>公务员</t>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>222</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公路养护</t>
+  </si>
+  <si>
+    <t>121</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场监管</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉族</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中共党员</t>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厅局级正职</t>
+  </si>
+  <si>
+    <t>问问</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合管理</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2为其</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2说的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ss</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>111</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>33</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>444</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>55</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请问</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>啥地方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未是否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>fad</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dfa</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sd</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>q rw</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查阿虎费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查人员wsdsd</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -259,6 +571,12 @@
     <font>
       <b/>
       <sz val="16"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -307,7 +625,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -326,10 +644,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -609,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA1"/>
+  <dimension ref="A1:BA3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -829,6 +1150,328 @@
         <v>52</v>
       </c>
     </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="W2" s="7">
+        <v>43863</v>
+      </c>
+      <c r="X2" s="7">
+        <v>43894</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>43832</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>43894</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>43862</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>43831</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW2" s="7">
+        <v>36192</v>
+      </c>
+      <c r="AX2" s="7">
+        <v>43832</v>
+      </c>
+      <c r="AY2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA2" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="W3" s="7">
+        <v>43863</v>
+      </c>
+      <c r="X3" s="7">
+        <v>43894</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>43832</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>43894</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>43862</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>43831</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW3" s="7">
+        <v>36192</v>
+      </c>
+      <c r="AX3" s="7">
+        <v>43832</v>
+      </c>
+      <c r="AY3" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ3" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA3" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="10">

--- a/static/excel/检查人员模板.xlsx
+++ b/static/excel/检查人员模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dingdingDownload\双随机模板(2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linh\Desktop\双随机模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>执法人员姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -233,326 +233,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>111</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在岗</t>
-  </si>
-  <si>
-    <t>公务员</t>
-  </si>
-  <si>
-    <t>22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>222</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公路养护</t>
-  </si>
-  <si>
-    <t>121</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场监管</t>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉族</t>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中共党员</t>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>厅局级正职</t>
-  </si>
-  <si>
-    <t>问问</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合管理</t>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2为其</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>22</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2说的</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ss</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>111</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>33</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>444</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>55</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请问</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>啥地方</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未是否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>fad</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>dfa</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>sd</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <r>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>q rw</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查阿虎费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查人员wsdsd</t>
+    <t>机构名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -571,12 +263,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -625,7 +311,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -648,9 +334,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -930,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA3"/>
+  <dimension ref="A1:BB1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="AZ9" sqref="AZ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -976,9 +659,11 @@
     <col min="38" max="38" width="20.75" style="5" customWidth="1"/>
     <col min="39" max="39" width="12.625" style="5" customWidth="1"/>
     <col min="40" max="40" width="11.75" style="5" customWidth="1"/>
-    <col min="41" max="41" width="18.5" style="5" customWidth="1"/>
+    <col min="41" max="41" width="39.5" style="5" customWidth="1"/>
     <col min="42" max="42" width="44" style="5" customWidth="1"/>
-    <col min="43" max="45" width="9" style="5"/>
+    <col min="43" max="43" width="17.875" style="5" customWidth="1"/>
+    <col min="44" max="44" width="15.75" style="5" customWidth="1"/>
+    <col min="45" max="45" width="9" style="5"/>
     <col min="46" max="46" width="13.5" style="5" customWidth="1"/>
     <col min="47" max="47" width="15.625" style="5" customWidth="1"/>
     <col min="48" max="48" width="16.375" style="5" customWidth="1"/>
@@ -986,10 +671,11 @@
     <col min="50" max="50" width="24.125" style="7" customWidth="1"/>
     <col min="51" max="51" width="23" customWidth="1"/>
     <col min="52" max="52" width="31.75" customWidth="1"/>
-    <col min="53" max="53" width="14.5" style="5" customWidth="1"/>
+    <col min="53" max="53" width="31.75" style="5" customWidth="1"/>
+    <col min="54" max="54" width="14.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:54" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1147,329 +833,10 @@
         <v>51</v>
       </c>
       <c r="BA1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB1" s="3" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="W2" s="7">
-        <v>43863</v>
-      </c>
-      <c r="X2" s="7">
-        <v>43894</v>
-      </c>
-      <c r="Y2" s="7">
-        <v>43832</v>
-      </c>
-      <c r="Z2" s="7">
-        <v>43894</v>
-      </c>
-      <c r="AA2" s="7">
-        <v>43862</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD2" s="7">
-        <v>43831</v>
-      </c>
-      <c r="AE2" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI2" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM2" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN2" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO2" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP2" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ2" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR2" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS2" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT2" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU2" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="AV2" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AW2" s="7">
-        <v>36192</v>
-      </c>
-      <c r="AX2" s="7">
-        <v>43832</v>
-      </c>
-      <c r="AY2" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AZ2" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="BA2" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="W3" s="7">
-        <v>43863</v>
-      </c>
-      <c r="X3" s="7">
-        <v>43894</v>
-      </c>
-      <c r="Y3" s="7">
-        <v>43832</v>
-      </c>
-      <c r="Z3" s="7">
-        <v>43894</v>
-      </c>
-      <c r="AA3" s="7">
-        <v>43862</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD3" s="7">
-        <v>43831</v>
-      </c>
-      <c r="AE3" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF3" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG3" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH3" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI3" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ3" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK3" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM3" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN3" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO3" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP3" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ3" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR3" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS3" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT3" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU3" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="AV3" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AW3" s="7">
-        <v>36192</v>
-      </c>
-      <c r="AX3" s="7">
-        <v>43832</v>
-      </c>
-      <c r="AY3" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AZ3" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="BA3" s="8" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/static/excel/检查人员模板.xlsx
+++ b/static/excel/检查人员模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linh\Desktop\双随机模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zhangminhui\行政检查\zhzf\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>执法人员姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -230,17 +230,13 @@
   </si>
   <si>
     <t>其他情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
@@ -613,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB1"/>
+  <dimension ref="A1:BA1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="AZ9" sqref="AZ9"/>
+      <selection activeCell="BG10" sqref="BG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -671,11 +667,10 @@
     <col min="50" max="50" width="24.125" style="7" customWidth="1"/>
     <col min="51" max="51" width="23" customWidth="1"/>
     <col min="52" max="52" width="31.75" customWidth="1"/>
-    <col min="53" max="53" width="31.75" style="5" customWidth="1"/>
-    <col min="54" max="54" width="14.5" style="5" customWidth="1"/>
+    <col min="53" max="53" width="14.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:53" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -833,9 +828,6 @@
         <v>51</v>
       </c>
       <c r="BA1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="BB1" s="3" t="s">
         <v>52</v>
       </c>
     </row>
